--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34073.17605191167</v>
+        <v>6759740.019836778</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34073.17605191167</v>
+        <v>6759740.019836778</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11269.63036094964</v>
+        <v>678645.8814476521</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11269.63036094964</v>
+        <v>678645.8814476521</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960680665.9800406</v>
+        <v>40726878.89773534</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9812.220965509869</v>
+        <v>1116339.452734262</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17637.17401419099</v>
+        <v>1903450.102942133</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25461.97137678532</v>
+        <v>2690560.753150005</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33571.00838072403</v>
+        <v>3444119.118987509</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41680.7922395987</v>
+        <v>4210523.41999859</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49655.23927663498</v>
+        <v>5006712.832955012</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57584.06439031167</v>
+        <v>5793823.483162881</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65512.88950398837</v>
+        <v>6580934.13337075</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73575.80023196683</v>
+        <v>7336459.299406952</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81685.73935122522</v>
+        <v>8101343.115308543</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89666.05092586207</v>
+        <v>8881760.729628474</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97623.44980205795</v>
+        <v>9657618.716959253</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105580.8486782543</v>
+        <v>10433476.70428977</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113667.4821036794</v>
+        <v>11194252.86434281</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121810.9284280229</v>
+        <v>11956119.1646652</v>
       </c>
     </row>
   </sheetData>
